--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Source:</t>
   </si>
@@ -48,9 +48,6 @@
     <t>have data specifically on fuel use fractions of district heating systems.</t>
   </si>
   <si>
-    <t>Fuel</t>
-  </si>
-  <si>
     <t>Natural gas</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>heat</t>
-  </si>
-  <si>
-    <t>Fraction used to generate heat</t>
   </si>
   <si>
     <t>Reallocating "Other" into modeled fuel categories</t>
@@ -178,7 +172,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,9 +187,11 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,12 +563,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -632,7 +628,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>55622.2</v>
@@ -658,7 +654,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>8003.3</v>
@@ -684,7 +680,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4050.7</v>
@@ -710,7 +706,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1090.2</v>
@@ -736,7 +732,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>7030.9</v>
@@ -762,18 +758,18 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8">
         <f>SUM(B3:H3)</f>
@@ -790,7 +786,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" ref="B11:B14" si="0">SUM(B4:H4)</f>
@@ -807,7 +803,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
@@ -824,7 +820,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8">
         <f t="shared" si="0"/>
@@ -841,7 +837,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
@@ -862,77 +858,1021 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="11">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="11">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="11">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="11">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="11">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="11">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="11">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="11">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="11">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="11">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="11">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="11">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="11">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AK7" si="0">$B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="12">
+        <f>Data!D11</f>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9">
-        <f>Data!D11</f>
-        <v>0.17030120384160674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="12">
+        <f>Data!D10</f>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9">
-        <f>Data!D10</f>
-        <v>0.63892242256425869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="12">
+        <f>Data!D13</f>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9">
-        <f>Data!D13</f>
-        <v>0.15686581716538556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="12">
+        <f>Data!D12</f>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9">
-        <f>Data!D12</f>
-        <v>3.3910556428748871E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54263B1F-4804-432C-9849-66BD0A8B2C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF3CEA-6821-4723-B4C9-B7249333D860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1470" windowWidth="22170" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="2040" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Source:</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>This can be changed by altering dist-heat/EoCtUH.</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
@@ -204,13 +210,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,10 +223,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,9 +286,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,26 +321,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,26 +356,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,19 +534,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,72 +554,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -672,27 +639,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2000</v>
       </c>
@@ -715,7 +682,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -741,7 +708,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -767,7 +734,7 @@
         <v>12343.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -793,7 +760,7 @@
         <v>199.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -819,7 +786,7 @@
         <v>4055.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -845,94 +812,94 @@
         <v>2641.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>SUM(B3:H3)</f>
         <v>102357.8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <f>B10/SUM(B$10:B$14)</f>
         <v>0.52282852429039151</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f>C10+C$14*(C10/SUM(C$10:C$13))</f>
         <v>0.63892242256425869</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f t="shared" ref="B11:B14" si="0">SUM(B4:H4)</f>
         <v>27282.9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f t="shared" ref="C11:C14" si="1">B11/SUM(B$10:B$14)</f>
         <v>0.13935702355230695</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:D13" si="2">C11+C$14*(C11/SUM(C$10:C$13))</f>
         <v>0.17030120384160674</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>5432.5999999999995</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f t="shared" si="1"/>
         <v>2.7748918412275184E-2</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="2"/>
-        <v>3.3910556428748871E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>25130.5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" si="1"/>
         <v>0.12836288225889658</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="2"/>
-        <v>0.15686581716538556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15686581716538556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>35573.200000000004</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f t="shared" si="1"/>
         <v>0.18170265148612963</v>
       </c>
@@ -947,130 +914,132 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="5">
         <v>2015</v>
       </c>
       <c r="C1">
         <v>2016</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="5">
         <v>2017</v>
       </c>
       <c r="E1">
         <v>2018</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="5">
         <v>2019</v>
       </c>
       <c r="G1">
         <v>2020</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="5">
         <v>2021</v>
       </c>
       <c r="I1">
         <v>2022</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="5">
         <v>2023</v>
       </c>
       <c r="K1">
         <v>2024</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="5">
         <v>2025</v>
       </c>
       <c r="M1">
         <v>2026</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="5">
         <v>2027</v>
       </c>
       <c r="O1">
         <v>2028</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="5">
         <v>2029</v>
       </c>
       <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="5">
         <v>2031</v>
       </c>
       <c r="S1">
         <v>2032</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="5">
         <v>2033</v>
       </c>
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="5">
         <v>2035</v>
       </c>
       <c r="W1">
         <v>2036</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="5">
         <v>2037</v>
       </c>
       <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="5">
         <v>2039</v>
       </c>
       <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AB1" s="9">
+      <c r="AB1" s="5">
         <v>2041</v>
       </c>
       <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AD1" s="9">
+      <c r="AD1" s="5">
         <v>2043</v>
       </c>
       <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="5">
         <v>2045</v>
       </c>
       <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AH1" s="5">
         <v>2047</v>
       </c>
       <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AJ1" s="9">
+      <c r="AJ1" s="5">
         <v>2049</v>
       </c>
       <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1218,16 +1187,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <f>Data!D11</f>
         <v>0.17030120384160674</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:R11" si="1">$B3</f>
+        <f t="shared" ref="C3:R13" si="1">$B3</f>
         <v>0.17030120384160674</v>
       </c>
       <c r="D3">
@@ -1367,11 +1336,11 @@
         <v>0.17030120384160674</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <f>Data!D10</f>
         <v>0.63892242256425869</v>
       </c>
@@ -1516,11 +1485,11 @@
         <v>0.63892242256425869</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <f>Data!D13</f>
         <v>0.15686581716538556</v>
       </c>
@@ -1665,11 +1634,11 @@
         <v>0.15686581716538556</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <f>Data!D12</f>
         <v>3.3910556428748871E-2</v>
       </c>
@@ -1814,7 +1783,7 @@
         <v>3.3910556428748871E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2034,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:AH11" si="2">$B8</f>
+        <f t="shared" ref="S8:AH13" si="2">$B8</f>
         <v>0</v>
       </c>
       <c r="T8">
@@ -2098,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" ref="AI8:AK11" si="3">$B8</f>
+        <f t="shared" ref="AI8:AK13" si="3">$B8</f>
         <v>0</v>
       </c>
       <c r="AJ8">
@@ -2110,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2406,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2550,6 +2519,302 @@
         <v>0</v>
       </c>
       <c r="AK11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
